--- a/biology/Médecine/Pentylènetétrazole/Pentylènetétrazole.xlsx
+++ b/biology/Médecine/Pentylènetétrazole/Pentylènetétrazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pentyl%C3%A8net%C3%A9trazole</t>
+          <t>Pentylènetétrazole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pentylènetétrazole, également connu sous les noms des pentylènetétrazol, métrazol, pentétrazol, pentaméthylènetétrazol, cardiazol ou PTZ, est un médicament autrefois utilisé comme stimulant circulatoire et respiratoire. Le neurologue et psychiatre américano-hongrois Ladislas J. Meduna a découvert en 1934 que des doses élevées provoquaient des convulsions. Il a ainsi été utilisé dans ce sens pour provoquer des crises épileptiques  pharmaco-induites par injections intraveineuses[2] dans le cadre de convulsivothérapies, mais son maniement compliqué et source d’effets indésirables importants a fait que son usage a rapidement été supplanté par l’usage de l’électrochoc[3].
-Son autorisation par la Food and Drug Administration (FDA) a été annulée en 1982[4].
+Le pentylènetétrazole, également connu sous les noms des pentylènetétrazol, métrazol, pentétrazol, pentaméthylènetétrazol, cardiazol ou PTZ, est un médicament autrefois utilisé comme stimulant circulatoire et respiratoire. Le neurologue et psychiatre américano-hongrois Ladislas J. Meduna a découvert en 1934 que des doses élevées provoquaient des convulsions. Il a ainsi été utilisé dans ce sens pour provoquer des crises épileptiques  pharmaco-induites par injections intraveineuses dans le cadre de convulsivothérapies, mais son maniement compliqué et source d’effets indésirables importants a fait que son usage a rapidement été supplanté par l’usage de l’électrochoc.
+Son autorisation par la Food and Drug Administration (FDA) a été annulée en 1982.
 </t>
         </is>
       </c>
